--- a/8.待完成项目/res.xlsx
+++ b/8.待完成项目/res.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G60"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,235 +459,240 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>216030137135</t>
+          <t>228706275516</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>京东商城（泡泡店）</t>
+          <t>多喜爱家纺儿童馆</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>个人</t>
+          <t>深圳市久明盛光电科技有限公司</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>65.00</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+          <t>281.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>914403003597955917</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>明细</t>
+        </is>
+      </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>216030137135</t>
-        </is>
-      </c>
+      <c r="A3" t="inlineStr"/>
       <c r="B3" t="inlineStr">
         <is>
-          <t>京东商城（泡泡店）</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>个人</t>
-        </is>
+          <t>191161浅意樱梦</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>65.00</t>
+          <t>281.40</t>
         </is>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
+      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>234033911566</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>191450挪威幻境床笠</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
+          <t>京东商城（泡泡店）</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>北京丰得源水务科技有限公司</t>
+        </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>65.00</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
+          <t>423.35</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>911101111028224355</t>
+        </is>
+      </c>
       <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>216959460376</t>
-        </is>
-      </c>
+      <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr">
         <is>
+          <t>191220锦绣良缘</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>423.35</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>234102167975</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>京东商城（泡泡店）</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>河南正茂建设工程有限公司</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>269.40</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>914101006716903056</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr"/>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>201316嗷呜小恐龙</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>个人</t>
+        </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>269.40</t>
+          <t>353.40</t>
         </is>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
+      <c r="G6" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>216961660086</t>
-        </is>
-      </c>
+      <c r="A7" t="inlineStr"/>
       <c r="B7" t="inlineStr">
         <is>
-          <t>京东商城（泡泡店）</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>个人</t>
-        </is>
+          <t>181233云朵棉花糖</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>69.00</t>
+          <t>353.40</t>
         </is>
       </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
-      <c r="G7" t="n">
-        <v>1</v>
-      </c>
+      <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr"/>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>453729091581908970</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>213010全棉抗菌成人呵护枕M</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>69.00</t>
-        </is>
-      </c>
+          <t>多喜爱旗舰店</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>马晓宾</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>收货人: 马晓宾
+手机号码: 15066125812上海市徐汇区小木桥路360弄2号甲603室</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>1367938057333441794</t>
-        </is>
-      </c>
+      <c r="A9" t="inlineStr"/>
       <c r="B9" t="inlineStr">
         <is>
-          <t>多喜爱旗舰店</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>中铁武汉电气化局集团第一工程有限公司</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>91420100303509752H</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>地址：武汉东湖新技术开发区武大园路2号湖北徽商大厦写字楼A栋7、8、9层 电话：027-51780030开户行：中国建设银行股份有限公司武汉光谷自贸区分行 账号：42001110208053012826邮箱：365095742@qq.com</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>5</v>
-      </c>
+          <t>191153薄荷般若</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>299.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr"/>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>234105965669</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>韵达快运/KD00006</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>11</v>
+          <t>京东商城（泡泡店）</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>个人</t>
+        </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>46.00</t>
+          <t>565.00</t>
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
       <c r="B11" t="inlineStr">
         <is>
-          <t>207013云朵棉花糖法兰绒毯II</t>
+          <t>202262梵尼亚大豆纤维冬被（珠白）</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>46.00</t>
+          <t>195.54</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -698,15 +703,15 @@
       <c r="A12" t="inlineStr"/>
       <c r="B12" t="inlineStr">
         <is>
-          <t>207008芒果多多法兰绒毯II</t>
+          <t>193083乐享绗绣对枕M</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>46.00</t>
+          <t>97.28</t>
         </is>
       </c>
       <c r="E12" t="inlineStr"/>
@@ -714,56 +719,63 @@
       <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>216967164625</t>
-        </is>
-      </c>
+      <c r="A13" t="inlineStr"/>
       <c r="B13" t="inlineStr">
         <is>
-          <t>多喜爱家纺儿童馆</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>个人</t>
-        </is>
+          <t>203052安怡决明子荞麦抗菌枕</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>874.20</t>
+          <t>38.32</t>
         </is>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
-      <c r="G13" t="n">
-        <v>1</v>
-      </c>
+      <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr"/>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2198329381502247669</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>192251杜邦sorona舒弹棉子母被</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>305.40</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="inlineStr"/>
+          <t>多喜爱旗舰店</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>老百姓大药房连锁股份有限公司</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91430 00078 28538 75C</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>单位地址：长沙市开福区青竹湖路808号
+电话号码：0731 -84495588  开户银行：中国建设银行股份有限公司长沙秀峰支行
+银行账户：43001590061052501284
+地址是：湖南省长沙市开福区青竹湖路808号，老百姓大药房总部   邓佩收   电话13908475569</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr"/>
       <c r="B15" t="inlineStr">
         <is>
-          <t>211160佩奇樱桃梦</t>
+          <t>211616樱花伴雪</t>
         </is>
       </c>
       <c r="C15" t="n">
@@ -771,7 +783,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>299.40</t>
+          <t>279.00</t>
         </is>
       </c>
       <c r="E15" t="inlineStr"/>
@@ -779,102 +791,101 @@
       <c r="G15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr"/>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2194300909633247669</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>192251杜邦sorona舒弹棉子母被</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>269.40</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="inlineStr"/>
+          <t>多喜爱旗舰店</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>老百姓大药房连锁股份有限公司</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91430 00078 28538 75C</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>单位地址：长沙市开福区青竹湖路808号
+电话号码：0731 -84495588  开户银行：中国建设银行股份有限公司长沙秀峰支行
+银行账户：43001590061052501284
+地址是：湖南省长沙市开福区青竹湖路808号，老百姓大药房总部   邓佩收   电话13908475569</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>216974387198</t>
-        </is>
-      </c>
+      <c r="A17" t="inlineStr"/>
       <c r="B17" t="inlineStr">
         <is>
-          <t>多喜爱家纺儿童馆</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>个人</t>
-        </is>
+          <t>211662晓山青</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>69.00</t>
+          <t>299.00</t>
         </is>
       </c>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
-      <c r="G17" t="n">
-        <v>1</v>
-      </c>
+      <c r="G17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr"/>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>1259406301836808398</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>213010全棉抗菌成人呵护枕M</t>
-        </is>
-      </c>
-      <c r="C18" t="n">
-        <v>1</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>69.00</t>
-        </is>
-      </c>
+          <t>多喜爱旗舰店</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
+      <c r="G18" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>216976361406</t>
-        </is>
-      </c>
+      <c r="A19" t="inlineStr"/>
       <c r="B19" t="inlineStr">
         <is>
-          <t>京东商城（泡泡店）</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>个人</t>
-        </is>
+          <t>201549幽谷孔雀绿</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>1</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>170.40</t>
+          <t>442.65</t>
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
-      <c r="G19" t="n">
-        <v>1</v>
-      </c>
+      <c r="G19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr"/>
       <c r="B20" t="inlineStr">
         <is>
-          <t>151346艾莉芬特乐园</t>
+          <t>201549幽谷孔雀绿</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -882,7 +893,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>170.40</t>
+          <t>442.65</t>
         </is>
       </c>
       <c r="E20" t="inlineStr"/>
@@ -890,41 +901,29 @@
       <c r="G20" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>1340351606172543189</t>
-        </is>
-      </c>
+      <c r="A21" t="inlineStr"/>
       <c r="B21" t="inlineStr">
         <is>
-          <t>多喜爱旗舰店</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>深圳市大鹏新区沙坑摄影基地</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>92440300MA5GD3BF25</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>邮箱709170938@qq.com</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>5</v>
-      </c>
+          <t>201418沉静冰河灰</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>505.98</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr"/>
       <c r="B22" t="inlineStr">
         <is>
-          <t>201592公园派对（流光黄）</t>
+          <t>201418沉静冰河灰</t>
         </is>
       </c>
       <c r="C22" t="n">
@@ -932,7 +931,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>349.00</t>
+          <t>505.98</t>
         </is>
       </c>
       <c r="E22" t="inlineStr"/>
@@ -942,35 +941,35 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>216982460282</t>
+          <t>1444120392013569897</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>京东商城（泡泡店）</t>
+          <t>多喜爱天猫奥莱店</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>个人</t>
+          <t>孙雯</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>406.20</t>
+          <t>202.79</t>
         </is>
       </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr"/>
       <c r="B24" t="inlineStr">
         <is>
-          <t>171237粉红弗洛拉被袋</t>
+          <t>211495贝琪</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -978,7 +977,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>113.40</t>
+          <t>219.49</t>
         </is>
       </c>
       <c r="E24" t="inlineStr"/>
@@ -986,29 +985,41 @@
       <c r="G24" t="inlineStr"/>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr"/>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>1444550772117035887</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>201120甜草莓床笠</t>
-        </is>
-      </c>
-      <c r="C25" t="n">
-        <v>1</v>
+          <t>多喜爱天猫奥莱店</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>广州鸿源广告制作有限公司</t>
+        </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>83.40</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr"/>
+          <t>109.55</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91440101MA59NP0C6B</t>
+        </is>
+      </c>
       <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
+      <c r="G25" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr"/>
       <c r="B26" t="inlineStr">
         <is>
-          <t>211064小桃汽</t>
+          <t>161515迷幻时空</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -1016,7 +1027,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>209.40</t>
+          <t>117.55</t>
         </is>
       </c>
       <c r="E26" t="inlineStr"/>
@@ -1026,35 +1037,39 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>216982946834</t>
+          <t>1164204097459144973</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>京东商城（泡泡店）</t>
+          <t>多喜爱旗舰店</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>个人</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>109.50</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
+          <t>成都刊墨文化传播有限公司</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91510104MA6CC19P9A</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>769371426@qq.com</t>
+        </is>
+      </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr"/>
       <c r="B28" t="inlineStr">
         <is>
-          <t>202091蜜柚初夏夏薄被</t>
+          <t>202102德绒保暖冬被</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -1062,7 +1077,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>109.50</t>
+          <t>369.00</t>
         </is>
       </c>
       <c r="E28" t="inlineStr"/>
@@ -1070,45 +1085,37 @@
       <c r="G28" t="inlineStr"/>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>217763479912</t>
-        </is>
-      </c>
+      <c r="A29" t="inlineStr"/>
       <c r="B29" t="inlineStr">
         <is>
-          <t>多喜爱家纺儿童馆</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>个人</t>
-        </is>
+          <t>217001暖柔双层加厚绒毯（珊瑚粉）</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>35</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>483.50</t>
+          <t>82.97</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
-      <c r="G29" t="n">
-        <v>1</v>
-      </c>
+      <c r="G29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr"/>
       <c r="B30" t="inlineStr">
         <is>
-          <t>203029泰德乳胶对枕（尊享款）</t>
+          <t>217001暖柔双层加厚绒毯（珊瑚粉）</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>31</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>163.31</t>
+          <t>83.00</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
@@ -1119,15 +1126,15 @@
       <c r="A31" t="inlineStr"/>
       <c r="B31" t="inlineStr">
         <is>
-          <t>202141萝卜丁丁夏薄被</t>
+          <t>217003暖柔双层加厚绒毯（丁香紫）</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>122.34</t>
+          <t>82.97</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
@@ -1135,37 +1142,53 @@
       <c r="G31" t="inlineStr"/>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr"/>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>228489229045</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>203117泰熙波浪乳胶枕（尊享款）</t>
-        </is>
-      </c>
-      <c r="C32" t="n">
-        <v>1</v>
+          <t>京东商城（泡泡店）</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>湖南中车智行科技有限公司</t>
+        </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>57.95</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
+          <t>1844.70</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>9143 0104 MA4R P1U1 7F</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>424020025@qq.com</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr"/>
       <c r="B33" t="inlineStr">
         <is>
-          <t>192277大豆绵柔被（海伦）</t>
+          <t>151136雅克德罗</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>139.90</t>
+          <t>204.97</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
@@ -1175,35 +1198,39 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>217701189357</t>
+          <t>575664014179258818</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>多喜爱家纺儿童馆</t>
+          <t>多喜爱旗舰店</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>个人</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>209.40</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
+          <t>山东航空股份有限公司工会委员会</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>9137 0000 7207 2120 1F</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1219928467@qq.com</t>
+        </is>
+      </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr"/>
       <c r="B35" t="inlineStr">
         <is>
-          <t>204038凯恩澳毛抗菌软垫</t>
+          <t>191501青颜</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -1211,7 +1238,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>209.40</t>
+          <t>279.00</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
@@ -1221,7 +1248,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>216993443647</t>
+          <t>234117214730</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1236,7 +1263,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>39.00</t>
+          <t>158.00</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
@@ -1249,7 +1276,7 @@
       <c r="A37" t="inlineStr"/>
       <c r="B37" t="inlineStr">
         <is>
-          <t>201231樱斐梦语对枕袋</t>
+          <t>213010全棉抗菌成人呵护枕M</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -1257,7 +1284,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>39.00</t>
+          <t>79.00</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
@@ -1265,83 +1292,75 @@
       <c r="G37" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>216992973209</t>
-        </is>
-      </c>
+      <c r="A38" t="inlineStr"/>
       <c r="B38" t="inlineStr">
         <is>
-          <t>多喜爱家纺儿童馆</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>个人</t>
-        </is>
+          <t>213026布朗熊全棉抗菌刺绣云感枕</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>1</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>436.80</t>
+          <t>79.00</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
-      <c r="G38" t="n">
-        <v>1</v>
-      </c>
+      <c r="G38" t="inlineStr"/>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr"/>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>234109128609</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>201416玫瑰烟粉</t>
-        </is>
-      </c>
-      <c r="C39" t="n">
-        <v>1</v>
+          <t>京东商城（泡泡店）</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>个人</t>
+        </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>436.80</t>
+          <t>688.80</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
+      <c r="G39" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>217781931528</t>
-        </is>
-      </c>
+      <c r="A40" t="inlineStr"/>
       <c r="B40" t="inlineStr">
         <is>
-          <t>京东商城（泡泡店）</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>个人</t>
-        </is>
+          <t>202102德绒保暖冬被</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>179.40</t>
+          <t>317.40</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
-      <c r="G40" t="n">
-        <v>1</v>
-      </c>
+      <c r="G40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr"/>
       <c r="B41" t="inlineStr">
         <is>
-          <t>201096微蓝之恋</t>
+          <t>202102德绒保暖冬被</t>
         </is>
       </c>
       <c r="C41" t="n">
@@ -1349,7 +1368,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>179.40</t>
+          <t>371.40</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
@@ -1357,37 +1376,29 @@
       <c r="G41" t="inlineStr"/>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>217720980398</t>
-        </is>
-      </c>
+      <c r="A42" t="inlineStr"/>
       <c r="B42" t="inlineStr">
         <is>
-          <t>京东商城（泡泡店）</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>个人</t>
-        </is>
+          <t>202102德绒保暖冬被</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>1</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>120.30</t>
+          <t>317.40</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
-      <c r="G42" t="n">
-        <v>1</v>
-      </c>
+      <c r="G42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr"/>
       <c r="B43" t="inlineStr">
         <is>
-          <t>202177浅忆冰霜绿夏薄被</t>
+          <t>202102德绒保暖冬被</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -1395,7 +1406,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>120.30</t>
+          <t>371.40</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
@@ -1405,7 +1416,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>217723480751</t>
+          <t>231716698418</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -1420,7 +1431,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>219.60</t>
+          <t>118.00</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
@@ -1433,369 +1444,20 @@
       <c r="A45" t="inlineStr"/>
       <c r="B45" t="inlineStr">
         <is>
-          <t>201315小小霸王</t>
+          <t>203109安怡决明子荞麦抗菌枕（中）</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>219.60</t>
+          <t>59.00</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>217020683386</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>京东商城（泡泡店）</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>中煤（天津）洗选科技有限公司</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>99.60</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>91120116MA05KN5Q8X</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr"/>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>202367贝尔抗菌七孔春秋被</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>1</v>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>99.60</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>217023167799</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>多喜爱家纺儿童馆</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>个人</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>263.40</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr"/>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>211059假日苏打</t>
-        </is>
-      </c>
-      <c r="C49" t="n">
-        <v>1</v>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>263.40</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>217806275816</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>京东商城（泡泡店）</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>杭州中美华东制药有限公司</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>142.80</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>91330100609120774J</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr"/>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>191449萌萌恋曲床笠</t>
-        </is>
-      </c>
-      <c r="C51" t="n">
-        <v>1</v>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>71.40</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr"/>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>191450挪威幻境床笠</t>
-        </is>
-      </c>
-      <c r="C52" t="n">
-        <v>1</v>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>71.40</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>217029573054</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>多喜爱家纺儿童馆</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>个人</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>279.20</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr"/>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>191400幻境云杉</t>
-        </is>
-      </c>
-      <c r="C54" t="n">
-        <v>1</v>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>279.20</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>217033991642</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>京东商城（泡泡店）</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>个人</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>395.80</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr"/>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>191392薄雾盐晶粉</t>
-        </is>
-      </c>
-      <c r="C56" t="n">
-        <v>1</v>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>395.80</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>217835852005</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>多喜爱家纺儿童馆</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>个人</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>79.00</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr"/>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>173004甜梦舒睡双人枕</t>
-        </is>
-      </c>
-      <c r="C58" t="n">
-        <v>1</v>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>79.00</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>217771879183</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>多喜爱家纺儿童馆</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>个人</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>69.30</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr"/>
-      <c r="G59" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr"/>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>201112橘色晨光床笠</t>
-        </is>
-      </c>
-      <c r="C60" t="n">
-        <v>1</v>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>69.30</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
